--- a/StockAnalyzer/Documents/Cagr.xlsx
+++ b/StockAnalyzer/Documents/Cagr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9651DF0E-B874-4F05-AAB4-7CE399F46707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74EB3AB-235A-474C-9C02-CD5267E101E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" xr2:uid="{1FEAE23A-2D19-48F4-A115-4AEB558F818C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Symbol</t>
   </si>
@@ -52,12 +52,28 @@
   <si>
     <t>Years</t>
   </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>CAGR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,12 +82,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,15 +105,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,14 +453,15 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" customWidth="1"/>
     <col min="13" max="17" width="11" bestFit="1" customWidth="1"/>
@@ -751,41 +779,87 @@
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>8801500000</v>
       </c>
-      <c r="E7">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>10714000000</v>
+      </c>
+      <c r="G7" s="2">
+        <f>YEAR($E$6)-YEAR($B$6)</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <f>E7/B7</f>
+        <v>1.217292506959041</v>
+      </c>
+      <c r="I7" s="3">
+        <f>POWER(H7,1/G7)-1</f>
+        <v>1.9857501979988923E-2</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>6740000000</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>9074000000</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="G8" s="2">
+        <f>YEAR($D$6)-YEAR($B$6)</f>
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <f>D8/B8</f>
+        <v>1.3462908011869437</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" ref="I8:I9" si="0">POWER(H8,1/G8)-1</f>
+        <v>3.0181835140523194E-2</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
         <v>5691000000</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
         <v>6891000000</v>
+      </c>
+      <c r="G9" s="2">
+        <f>YEAR($E$6)-YEAR($C$6)</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <f>E9/C9</f>
+        <v>1.2108592514496574</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9007620504587726E-2</v>
       </c>
     </row>
   </sheetData>

--- a/StockAnalyzer/Documents/Cagr.xlsx
+++ b/StockAnalyzer/Documents/Cagr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74EB3AB-235A-474C-9C02-CD5267E101E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517DCD2B-D642-4AD9-A4E4-A5FFA53CE761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" xr2:uid="{1FEAE23A-2D19-48F4-A115-4AEB558F818C}"/>
+    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" xr2:uid="{1FEAE23A-2D19-48F4-A115-4AEB558F818C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>Symbol</t>
   </si>
@@ -63,8 +63,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,12 +110,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11DCBC5-AD54-4252-9B6C-B243790C00EB}">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +809,7 @@
         <f>E7/B7</f>
         <v>1.217292506959041</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <f>POWER(H7,1/G7)-1</f>
         <v>1.9857501979988923E-2</v>
       </c>
@@ -832,7 +834,7 @@
         <f>D8/B8</f>
         <v>1.3462908011869437</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <f t="shared" ref="I8:I9" si="0">POWER(H8,1/G8)-1</f>
         <v>3.0181835140523194E-2</v>
       </c>
@@ -857,9 +859,274 @@
         <f>E9/C9</f>
         <v>1.2108592514496574</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>3.9007620504587726E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40173</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40178</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40537</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40543</v>
+      </c>
+      <c r="F12" s="1">
+        <v>40908</v>
+      </c>
+      <c r="G12" s="1">
+        <v>41272</v>
+      </c>
+      <c r="H12" s="1">
+        <v>41274</v>
+      </c>
+      <c r="I12" s="1">
+        <v>41636</v>
+      </c>
+      <c r="J12" s="1">
+        <v>41639</v>
+      </c>
+      <c r="K12" s="1">
+        <v>42000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>42004</v>
+      </c>
+      <c r="M12" s="1">
+        <v>42364</v>
+      </c>
+      <c r="N12" s="1">
+        <v>42369</v>
+      </c>
+      <c r="O12" s="1">
+        <v>42735</v>
+      </c>
+      <c r="P12" s="1">
+        <v>43099</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>43100</v>
+      </c>
+      <c r="R12" s="1">
+        <v>43463</v>
+      </c>
+      <c r="S12" s="1">
+        <v>43465</v>
+      </c>
+      <c r="T12" s="1">
+        <v>43827</v>
+      </c>
+      <c r="U12" s="1">
+        <v>43830</v>
+      </c>
+      <c r="V12" s="1">
+        <v>44191</v>
+      </c>
+      <c r="W12" s="1">
+        <v>44196</v>
+      </c>
+      <c r="X12" s="1">
+        <v>44555</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>44561</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>44926</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>45290</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>6824000000</v>
+      </c>
+      <c r="E13">
+        <v>11809000000</v>
+      </c>
+      <c r="F13">
+        <v>8572000000</v>
+      </c>
+      <c r="H13">
+        <v>9019000000</v>
+      </c>
+      <c r="J13">
+        <v>8584000000</v>
+      </c>
+      <c r="L13">
+        <v>7098000000</v>
+      </c>
+      <c r="N13">
+        <v>7351000000</v>
+      </c>
+      <c r="O13">
+        <v>6527000000</v>
+      </c>
+      <c r="Q13">
+        <v>1248000000</v>
+      </c>
+      <c r="S13">
+        <v>6434000000</v>
+      </c>
+      <c r="U13">
+        <v>8920000000</v>
+      </c>
+      <c r="W13">
+        <v>7747000000</v>
+      </c>
+      <c r="Y13">
+        <v>9771000000</v>
+      </c>
+      <c r="Z13">
+        <v>9542000000</v>
+      </c>
+      <c r="AB13">
+        <v>10714000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5946000000</v>
+      </c>
+      <c r="D14">
+        <v>6320000000</v>
+      </c>
+      <c r="F14">
+        <v>6443000000</v>
+      </c>
+      <c r="G14">
+        <v>6178000000</v>
+      </c>
+      <c r="I14">
+        <v>6740000000</v>
+      </c>
+      <c r="K14">
+        <v>6513000000</v>
+      </c>
+      <c r="M14">
+        <v>5452000000</v>
+      </c>
+      <c r="O14">
+        <v>6329000000</v>
+      </c>
+      <c r="P14">
+        <v>4857000000</v>
+      </c>
+      <c r="R14">
+        <v>12515000000</v>
+      </c>
+      <c r="T14">
+        <v>7314000000</v>
+      </c>
+      <c r="V14">
+        <v>7120000000</v>
+      </c>
+      <c r="X14">
+        <v>7618000000</v>
+      </c>
+      <c r="Z14">
+        <v>8910000000</v>
+      </c>
+      <c r="AA14">
+        <v>9074000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>5691000000</v>
+      </c>
+      <c r="U15">
+        <v>10414000000</v>
+      </c>
+      <c r="W15">
+        <v>2202000000</v>
+      </c>
+      <c r="Y15">
+        <v>6114000000</v>
+      </c>
+      <c r="Z15">
+        <v>7597000000</v>
+      </c>
+      <c r="AB15">
+        <v>6891000000</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>1.248</v>
+      </c>
+      <c r="J19">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="J21">
+        <v>3.9E-2</v>
       </c>
     </row>
   </sheetData>
